--- a/Data_frame/balancos_definitivos/BPAN4.xlsx
+++ b/Data_frame/balancos_definitivos/BPAN4.xlsx
@@ -765,7 +765,7 @@
         <v>13785636.864</v>
       </c>
       <c r="H2" t="n">
-        <v>46459797.504</v>
+        <v>11563121.664</v>
       </c>
       <c r="I2" t="n">
         <v>11677993.984</v>
@@ -894,34 +894,34 @@
         <v>43148201.984</v>
       </c>
       <c r="AY2" t="n">
-        <v>340556054.528</v>
+        <v>44480413.696</v>
       </c>
       <c r="AZ2" t="n">
-        <v>318201790.464</v>
+        <v>48433405.952</v>
       </c>
       <c r="BA2" t="n">
-        <v>327950925.824</v>
+        <v>52599562.24</v>
       </c>
       <c r="BB2" t="n">
-        <v>384224428.032</v>
+        <v>55080001.536</v>
       </c>
       <c r="BC2" t="n">
-        <v>368817602.56</v>
+        <v>55785140.224</v>
       </c>
       <c r="BD2" t="n">
-        <v>369588207.616</v>
+        <v>57130487.808</v>
       </c>
       <c r="BE2" t="n">
-        <v>367168978.944</v>
+        <v>58136186.88</v>
       </c>
       <c r="BF2" t="n">
-        <v>390000312.32</v>
+        <v>57898303.488</v>
       </c>
       <c r="BG2" t="n">
-        <v>426162290.688</v>
+        <v>55376928.768</v>
       </c>
       <c r="BH2" t="n">
-        <v>442248134.656</v>
+        <v>58843103.232</v>
       </c>
       <c r="BI2" t="n">
         <v>63206297.6</v>
@@ -952,7 +952,7 @@
         <v>7073817.088</v>
       </c>
       <c r="H3" t="n">
-        <v>41887543.296</v>
+        <v>4474829.824</v>
       </c>
       <c r="I3" t="n">
         <v>6360524.8</v>
@@ -1081,34 +1081,34 @@
         <v>18123130.88</v>
       </c>
       <c r="AY3" t="n">
-        <v>236904726.528</v>
+        <v>19684855.808</v>
       </c>
       <c r="AZ3" t="n">
-        <v>214016425.984</v>
+        <v>21674295.296</v>
       </c>
       <c r="BA3" t="n">
-        <v>304515022.848</v>
+        <v>26399166.464</v>
       </c>
       <c r="BB3" t="n">
-        <v>355304112.128</v>
+        <v>27339509.76</v>
       </c>
       <c r="BC3" t="n">
-        <v>339788169.216</v>
+        <v>31158542.336</v>
       </c>
       <c r="BD3" t="n">
-        <v>337608736.768</v>
+        <v>28246372.352</v>
       </c>
       <c r="BE3" t="n">
-        <v>334213414.912</v>
+        <v>27529732.096</v>
       </c>
       <c r="BF3" t="n">
-        <v>355435970.56</v>
+        <v>26563983.36</v>
       </c>
       <c r="BG3" t="n">
-        <v>384549912.576</v>
+        <v>27364530.176</v>
       </c>
       <c r="BH3" t="n">
-        <v>395113234.432</v>
+        <v>26223904.768</v>
       </c>
       <c r="BI3" t="n">
         <v>27403696.128</v>
@@ -1139,7 +1139,7 @@
         <v>20299</v>
       </c>
       <c r="H4" t="n">
-        <v>1905</v>
+        <v>7560</v>
       </c>
       <c r="I4" t="n">
         <v>967</v>
@@ -1268,34 +1268,34 @@
         <v>7101</v>
       </c>
       <c r="AY4" t="n">
-        <v>998504</v>
+        <v>2439</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1602316.032</v>
+        <v>2272</v>
       </c>
       <c r="BA4" t="n">
-        <v>1328962.944</v>
+        <v>2323</v>
       </c>
       <c r="BB4" t="n">
-        <v>1052593.984</v>
+        <v>2769</v>
       </c>
       <c r="BC4" t="n">
-        <v>1589502.976</v>
+        <v>2862</v>
       </c>
       <c r="BD4" t="n">
-        <v>1084210.048</v>
+        <v>677</v>
       </c>
       <c r="BE4" t="n">
-        <v>1095169.024</v>
+        <v>541</v>
       </c>
       <c r="BF4" t="n">
-        <v>2068504.064</v>
+        <v>555</v>
       </c>
       <c r="BG4" t="n">
-        <v>1433991.04</v>
+        <v>548</v>
       </c>
       <c r="BH4" t="n">
-        <v>1323965.952</v>
+        <v>597</v>
       </c>
       <c r="BI4" t="n">
         <v>584</v>
@@ -1326,7 +1326,7 @@
         <v>1608622.976</v>
       </c>
       <c r="H5" t="n">
-        <v>18277447.68</v>
+        <v>1067900.032</v>
       </c>
       <c r="I5" t="n">
         <v>2435302.912</v>
@@ -1455,34 +1455,34 @@
         <v>123000</v>
       </c>
       <c r="AY5" t="n">
-        <v>51068334.08</v>
+        <v>873990.0159999999</v>
       </c>
       <c r="AZ5" t="n">
-        <v>54244376.576</v>
+        <v>1202</v>
       </c>
       <c r="BA5" t="n">
-        <v>50844549.12</v>
+        <v>72497</v>
       </c>
       <c r="BB5" t="n">
-        <v>58632105.984</v>
+        <v>10393</v>
       </c>
       <c r="BC5" t="n">
-        <v>59102609.408</v>
+        <v>1329400.064</v>
       </c>
       <c r="BD5" t="n">
-        <v>75635335.168</v>
+        <v>1969</v>
       </c>
       <c r="BE5" t="n">
-        <v>88070406.14399999</v>
+        <v>165440.992</v>
       </c>
       <c r="BF5" t="n">
-        <v>66693406.72</v>
+        <v>3641049.088</v>
       </c>
       <c r="BG5" t="n">
-        <v>75531993.088</v>
+        <v>142254</v>
       </c>
       <c r="BH5" t="n">
-        <v>76709388.288</v>
+        <v>201236</v>
       </c>
       <c r="BI5" t="n">
         <v>74551</v>
@@ -1513,7 +1513,7 @@
         <v>131873</v>
       </c>
       <c r="H6" t="n">
-        <v>16170532.864</v>
+        <v>24297</v>
       </c>
       <c r="I6" t="n">
         <v>25677</v>
@@ -1642,34 +1642,34 @@
         <v>380174.016</v>
       </c>
       <c r="AY6" t="n">
-        <v>133339029.504</v>
+        <v>790465.024</v>
       </c>
       <c r="AZ6" t="n">
-        <v>90779189.248</v>
+        <v>1469997.056</v>
       </c>
       <c r="BA6" t="n">
-        <v>144421568.512</v>
+        <v>1373261.952</v>
       </c>
       <c r="BB6" t="n">
-        <v>136413634.56</v>
+        <v>5434025.984</v>
       </c>
       <c r="BC6" t="n">
-        <v>141736443.904</v>
+        <v>3978123.008</v>
       </c>
       <c r="BD6" t="n">
-        <v>114304851.968</v>
+        <v>3999565.056</v>
       </c>
       <c r="BE6" t="n">
-        <v>118969556.992</v>
+        <v>4289157.888</v>
       </c>
       <c r="BF6" t="n">
-        <v>174369112.064</v>
+        <v>10956</v>
       </c>
       <c r="BG6" t="n">
-        <v>199021625.344</v>
+        <v>2623826.944</v>
       </c>
       <c r="BH6" t="n">
-        <v>208184868.864</v>
+        <v>2680457.984</v>
       </c>
       <c r="BI6" t="n">
         <v>2670636.032</v>
@@ -1700,7 +1700,7 @@
         <v>50285</v>
       </c>
       <c r="H7" t="n">
-        <v>99740</v>
+        <v>2151</v>
       </c>
       <c r="I7" t="n">
         <v>11978</v>
@@ -1829,34 +1829,34 @@
         <v>1538914.048</v>
       </c>
       <c r="AY7" t="n">
-        <v>7728054.784</v>
+        <v>1867074.944</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9753879.551999999</v>
+        <v>2828434.944</v>
       </c>
       <c r="BA7" t="n">
-        <v>9380121.6</v>
+        <v>3215454.976</v>
       </c>
       <c r="BB7" t="n">
-        <v>12866158.592</v>
+        <v>3508504.064</v>
       </c>
       <c r="BC7" t="n">
-        <v>30111029.248</v>
+        <v>3325303.04</v>
       </c>
       <c r="BD7" t="n">
-        <v>14739812.352</v>
+        <v>3027522.048</v>
       </c>
       <c r="BE7" t="n">
-        <v>13534683.136</v>
+        <v>2655154.944</v>
       </c>
       <c r="BF7" t="n">
-        <v>14688983.04</v>
+        <v>2923702.016</v>
       </c>
       <c r="BG7" t="n">
-        <v>17122259.968</v>
+        <v>3116775.936</v>
       </c>
       <c r="BH7" t="n">
-        <v>15881267.2</v>
+        <v>3281152</v>
       </c>
       <c r="BI7" t="n">
         <v>3224538.88</v>
@@ -1887,7 +1887,7 @@
         <v>1780</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="I8" t="n">
         <v>1271</v>
@@ -2074,7 +2074,7 @@
         <v>3433372.928</v>
       </c>
       <c r="H9" t="n">
-        <v>1333705.984</v>
+        <v>2044236.032</v>
       </c>
       <c r="I9" t="n">
         <v>1172978.944</v>
@@ -2203,34 +2203,34 @@
         <v>13431678.976</v>
       </c>
       <c r="AY9" t="n">
-        <v>24434391.04</v>
+        <v>14116999.168</v>
       </c>
       <c r="AZ9" t="n">
-        <v>30059157.504</v>
+        <v>15525756.928</v>
       </c>
       <c r="BA9" t="n">
-        <v>58558476.288</v>
+        <v>17090507.776</v>
       </c>
       <c r="BB9" t="n">
-        <v>63208521.728</v>
+        <v>16619017.216</v>
       </c>
       <c r="BC9" t="n">
-        <v>63070699.52</v>
+        <v>17595971.584</v>
       </c>
       <c r="BD9" t="n">
-        <v>64922087.424</v>
+        <v>19468400.64</v>
       </c>
       <c r="BE9" t="n">
-        <v>59474690.048</v>
+        <v>17997535.232</v>
       </c>
       <c r="BF9" t="n">
-        <v>50933645.312</v>
+        <v>17981388.8</v>
       </c>
       <c r="BG9" t="n">
-        <v>53329670.144</v>
+        <v>16805432.32</v>
       </c>
       <c r="BH9" t="n">
-        <v>57906470.912</v>
+        <v>18383755.264</v>
       </c>
       <c r="BI9" t="n">
         <v>19898314.752</v>
@@ -2448,7 +2448,7 @@
         <v>1217063.04</v>
       </c>
       <c r="H11" t="n">
-        <v>5961705.984</v>
+        <v>1190647.04</v>
       </c>
       <c r="I11" t="n">
         <v>2627631.104</v>
@@ -2577,34 +2577,34 @@
         <v>2463617.024</v>
       </c>
       <c r="AY11" t="n">
-        <v>18611431.424</v>
+        <v>1837284.992</v>
       </c>
       <c r="AZ11" t="n">
-        <v>27164850.176</v>
+        <v>1663821.952</v>
       </c>
       <c r="BA11" t="n">
-        <v>38962659.328</v>
+        <v>4401784.832</v>
       </c>
       <c r="BB11" t="n">
-        <v>82166349.824</v>
+        <v>1486873.984</v>
       </c>
       <c r="BC11" t="n">
-        <v>43223678.976</v>
+        <v>4569866.752</v>
       </c>
       <c r="BD11" t="n">
-        <v>65743024.128</v>
+        <v>1497921.024</v>
       </c>
       <c r="BE11" t="n">
-        <v>51930808.32</v>
+        <v>2034599.04</v>
       </c>
       <c r="BF11" t="n">
-        <v>45440086.016</v>
+        <v>1697840</v>
       </c>
       <c r="BG11" t="n">
-        <v>36856369.152</v>
+        <v>4363567.104</v>
       </c>
       <c r="BH11" t="n">
-        <v>33137180.672</v>
+        <v>1393336.064</v>
       </c>
       <c r="BI11" t="n">
         <v>1235334.016</v>
@@ -2635,7 +2635,7 @@
         <v>276572.992</v>
       </c>
       <c r="H12" t="n">
-        <v>42505</v>
+        <v>137128</v>
       </c>
       <c r="I12" t="n">
         <v>84719</v>
@@ -2764,34 +2764,34 @@
         <v>178644.992</v>
       </c>
       <c r="AY12" t="n">
-        <v>724971.008</v>
+        <v>196603.008</v>
       </c>
       <c r="AZ12" t="n">
-        <v>412664</v>
+        <v>182811.008</v>
       </c>
       <c r="BA12" t="n">
-        <v>1018688</v>
+        <v>243335.008</v>
       </c>
       <c r="BB12" t="n">
-        <v>964718.0159999999</v>
+        <v>277927.008</v>
       </c>
       <c r="BC12" t="n">
-        <v>954184</v>
+        <v>357016</v>
       </c>
       <c r="BD12" t="n">
-        <v>1179415.04</v>
+        <v>250318</v>
       </c>
       <c r="BE12" t="n">
-        <v>1138077.952</v>
+        <v>387300.992</v>
       </c>
       <c r="BF12" t="n">
-        <v>1242219.008</v>
+        <v>308492.992</v>
       </c>
       <c r="BG12" t="n">
-        <v>1254018.048</v>
+        <v>312124.992</v>
       </c>
       <c r="BH12" t="n">
-        <v>1970086.016</v>
+        <v>283369.984</v>
       </c>
       <c r="BI12" t="n">
         <v>299736.992</v>
@@ -2822,7 +2822,7 @@
         <v>6666826.24</v>
       </c>
       <c r="H13" t="n">
-        <v>2900350.976</v>
+        <v>6833077.248</v>
       </c>
       <c r="I13" t="n">
         <v>5068313.088</v>
@@ -2951,34 +2951,34 @@
         <v>24009697.28</v>
       </c>
       <c r="AY13" t="n">
-        <v>82867298.30400001</v>
+        <v>23740368.896</v>
       </c>
       <c r="AZ13" t="n">
-        <v>80830775.296</v>
+        <v>25626742.784</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>23283271.68</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>24801234.944</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>21697134.592</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>25924763.648</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>27635795.968</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>28335316.992</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>24996122.624</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>29633208.32</v>
       </c>
       <c r="BI13" t="n">
         <v>32838504.448</v>
@@ -3009,7 +3009,7 @@
         <v>155160</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>526164.992</v>
       </c>
       <c r="I14" t="n">
         <v>511960.992</v>
@@ -3138,34 +3138,34 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>6716196.864</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6821763.072</v>
+        <v>5974</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>173368</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>88890</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>266340.992</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>275281.984</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>295958.016</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>352248.992</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>139662</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>56860</v>
       </c>
       <c r="BI14" t="n">
         <v>71413</v>
@@ -3196,7 +3196,7 @@
         <v>495233.984</v>
       </c>
       <c r="H15" t="n">
-        <v>7631</v>
+        <v>1549779.968</v>
       </c>
       <c r="I15" t="n">
         <v>2118595.968</v>
@@ -3325,34 +3325,34 @@
         <v>3172229.12</v>
       </c>
       <c r="AY15" t="n">
-        <v>34649038.848</v>
+        <v>2819960.064</v>
       </c>
       <c r="AZ15" t="n">
-        <v>34761957.376</v>
+        <v>4615179.776</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>6095883.776</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>4668275.2</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>4737155.072</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>4935106.048</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>5472743.936</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>6424838.144</v>
       </c>
       <c r="BG15" t="n">
-        <v>0</v>
+        <v>3976045.056</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>4409925.12</v>
       </c>
       <c r="BI15" t="n">
         <v>5260902.912</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34406</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -3512,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>131470</v>
+        <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>131470</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>4476810.752</v>
       </c>
       <c r="H18" t="n">
-        <v>1452715.008</v>
+        <v>3316820.992</v>
       </c>
       <c r="I18" t="n">
         <v>1061508.992</v>
@@ -3886,34 +3886,34 @@
         <v>16752001.024</v>
       </c>
       <c r="AY18" t="n">
-        <v>28232990.72</v>
+        <v>16694827.008</v>
       </c>
       <c r="AZ18" t="n">
-        <v>25435568.128</v>
+        <v>16811526.144</v>
       </c>
       <c r="BA18" t="n">
-        <v>0</v>
+        <v>16380342.272</v>
       </c>
       <c r="BB18" t="n">
-        <v>0</v>
+        <v>16700247.04</v>
       </c>
       <c r="BC18" t="n">
-        <v>0</v>
+        <v>16217396.224</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>17007089.664</v>
       </c>
       <c r="BE18" t="n">
-        <v>0</v>
+        <v>18895095.808</v>
       </c>
       <c r="BF18" t="n">
-        <v>0</v>
+        <v>18098358.272</v>
       </c>
       <c r="BG18" t="n">
-        <v>0</v>
+        <v>20089192.448</v>
       </c>
       <c r="BH18" t="n">
-        <v>0</v>
+        <v>21282177.024</v>
       </c>
       <c r="BI18" t="n">
         <v>23404406.784</v>
@@ -4131,7 +4131,7 @@
         <v>493284</v>
       </c>
       <c r="H20" t="n">
-        <v>1405598.976</v>
+        <v>1339990.016</v>
       </c>
       <c r="I20" t="n">
         <v>1335965.056</v>
@@ -4260,34 +4260,34 @@
         <v>3950468.096</v>
       </c>
       <c r="AY20" t="n">
-        <v>12635993.088</v>
+        <v>4092169.984</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13228820.48</v>
+        <v>4060614.912</v>
       </c>
       <c r="BA20" t="n">
-        <v>0</v>
+        <v>487529.984</v>
       </c>
       <c r="BB20" t="n">
-        <v>0</v>
+        <v>3206085.12</v>
       </c>
       <c r="BC20" t="n">
-        <v>0</v>
+        <v>442200</v>
       </c>
       <c r="BD20" t="n">
-        <v>0</v>
+        <v>3583947.008</v>
       </c>
       <c r="BE20" t="n">
-        <v>0</v>
+        <v>2922921.984</v>
       </c>
       <c r="BF20" t="n">
-        <v>0</v>
+        <v>3324954.88</v>
       </c>
       <c r="BG20" t="n">
-        <v>0</v>
+        <v>638172.032</v>
       </c>
       <c r="BH20" t="n">
-        <v>0</v>
+        <v>3741863.936</v>
       </c>
       <c r="BI20" t="n">
         <v>3971506.944</v>
@@ -4318,7 +4318,7 @@
         <v>317188</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100321</v>
       </c>
       <c r="I21" t="n">
         <v>40282</v>
@@ -4447,34 +4447,34 @@
         <v>135000</v>
       </c>
       <c r="AY21" t="n">
-        <v>501608</v>
+        <v>133411</v>
       </c>
       <c r="AZ21" t="n">
-        <v>451196.992</v>
+        <v>133447</v>
       </c>
       <c r="BA21" t="n">
-        <v>0</v>
+        <v>146148</v>
       </c>
       <c r="BB21" t="n">
-        <v>0</v>
+        <v>137736.992</v>
       </c>
       <c r="BC21" t="n">
-        <v>0</v>
+        <v>34042</v>
       </c>
       <c r="BD21" t="n">
-        <v>0</v>
+        <v>123340</v>
       </c>
       <c r="BE21" t="n">
-        <v>0</v>
+        <v>49078</v>
       </c>
       <c r="BF21" t="n">
-        <v>0</v>
+        <v>134918</v>
       </c>
       <c r="BG21" t="n">
-        <v>0</v>
+        <v>153051.008</v>
       </c>
       <c r="BH21" t="n">
-        <v>0</v>
+        <v>142383.008</v>
       </c>
       <c r="BI21" t="n">
         <v>130274</v>
@@ -4505,7 +4505,7 @@
         <v>44994</v>
       </c>
       <c r="H22" t="n">
-        <v>1671901.952</v>
+        <v>255215.008</v>
       </c>
       <c r="I22" t="n">
         <v>249156</v>
@@ -4634,34 +4634,34 @@
         <v>1015369.984</v>
       </c>
       <c r="AY22" t="n">
-        <v>20784039.936</v>
+        <v>1055187.008</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23354587.136</v>
+        <v>1132370.944</v>
       </c>
       <c r="BA22" t="n">
-        <v>23435892.736</v>
+        <v>2917125.888</v>
       </c>
       <c r="BB22" t="n">
-        <v>28920324.096</v>
+        <v>2939254.016</v>
       </c>
       <c r="BC22" t="n">
-        <v>29029449.728</v>
+        <v>2929464.064</v>
       </c>
       <c r="BD22" t="n">
-        <v>31979452.416</v>
+        <v>2959352.064</v>
       </c>
       <c r="BE22" t="n">
-        <v>32955594.752</v>
+        <v>2970659.072</v>
       </c>
       <c r="BF22" t="n">
-        <v>34564341.76</v>
+        <v>2999002.112</v>
       </c>
       <c r="BG22" t="n">
-        <v>41612365.824</v>
+        <v>3016274.944</v>
       </c>
       <c r="BH22" t="n">
-        <v>47134904.32</v>
+        <v>2985989.888</v>
       </c>
       <c r="BI22" t="n">
         <v>2964096</v>
@@ -4692,7 +4692,7 @@
         <v>1557</v>
       </c>
       <c r="H23" t="n">
-        <v>1446311.04</v>
+        <v>238791.008</v>
       </c>
       <c r="I23" t="n">
         <v>232180.992</v>
@@ -4821,34 +4821,34 @@
         <v>911849.9840000001</v>
       </c>
       <c r="AY23" t="n">
-        <v>20518432.768</v>
+        <v>920852.992</v>
       </c>
       <c r="AZ23" t="n">
-        <v>22318292.992</v>
+        <v>954958.976</v>
       </c>
       <c r="BA23" t="n">
-        <v>22562803.712</v>
+        <v>2716133.12</v>
       </c>
       <c r="BB23" t="n">
-        <v>27835043.84</v>
+        <v>2710555.904</v>
       </c>
       <c r="BC23" t="n">
-        <v>27891818.496</v>
+        <v>2714004.992</v>
       </c>
       <c r="BD23" t="n">
-        <v>31165911.04</v>
+        <v>2724731.904</v>
       </c>
       <c r="BE23" t="n">
-        <v>32151463.936</v>
+        <v>2735874.048</v>
       </c>
       <c r="BF23" t="n">
-        <v>33800536.064</v>
+        <v>2737399.04</v>
       </c>
       <c r="BG23" t="n">
-        <v>40908898.304</v>
+        <v>2734040.064</v>
       </c>
       <c r="BH23" t="n">
-        <v>46471872.512</v>
+        <v>2712787.968</v>
       </c>
       <c r="BI23" t="n">
         <v>2703410.944</v>
@@ -4879,7 +4879,7 @@
         <v>38723</v>
       </c>
       <c r="H24" t="n">
-        <v>194726</v>
+        <v>8702</v>
       </c>
       <c r="I24" t="n">
         <v>8367</v>
@@ -5008,34 +5008,34 @@
         <v>26692</v>
       </c>
       <c r="AY24" t="n">
-        <v>120157</v>
+        <v>49097</v>
       </c>
       <c r="AZ24" t="n">
-        <v>143572</v>
+        <v>101395</v>
       </c>
       <c r="BA24" t="n">
-        <v>155860.992</v>
+        <v>132758</v>
       </c>
       <c r="BB24" t="n">
-        <v>165260</v>
+        <v>154983.008</v>
       </c>
       <c r="BC24" t="n">
-        <v>187064</v>
+        <v>142560</v>
       </c>
       <c r="BD24" t="n">
-        <v>209114</v>
+        <v>130245</v>
       </c>
       <c r="BE24" t="n">
-        <v>213634</v>
+        <v>117160</v>
       </c>
       <c r="BF24" t="n">
-        <v>214050</v>
+        <v>112072</v>
       </c>
       <c r="BG24" t="n">
-        <v>191960</v>
+        <v>112597</v>
       </c>
       <c r="BH24" t="n">
-        <v>188275.008</v>
+        <v>100178</v>
       </c>
       <c r="BI24" t="n">
         <v>87831</v>
@@ -5253,7 +5253,7 @@
         <v>4714</v>
       </c>
       <c r="H26" t="n">
-        <v>15518</v>
+        <v>7722</v>
       </c>
       <c r="I26" t="n">
         <v>8608</v>
@@ -5382,34 +5382,34 @@
         <v>76828</v>
       </c>
       <c r="AY26" t="n">
-        <v>145451.008</v>
+        <v>85237</v>
       </c>
       <c r="AZ26" t="n">
-        <v>892723.968</v>
+        <v>76017</v>
       </c>
       <c r="BA26" t="n">
-        <v>717228.032</v>
+        <v>68235</v>
       </c>
       <c r="BB26" t="n">
-        <v>920022.0159999999</v>
+        <v>73715</v>
       </c>
       <c r="BC26" t="n">
-        <v>950568</v>
+        <v>72899</v>
       </c>
       <c r="BD26" t="n">
-        <v>604425.9840000001</v>
+        <v>104375</v>
       </c>
       <c r="BE26" t="n">
-        <v>590497.024</v>
+        <v>117625</v>
       </c>
       <c r="BF26" t="n">
-        <v>549755.008</v>
+        <v>149531.008</v>
       </c>
       <c r="BG26" t="n">
-        <v>511504</v>
+        <v>169638</v>
       </c>
       <c r="BH26" t="n">
-        <v>474756.992</v>
+        <v>173024</v>
       </c>
       <c r="BI26" t="n">
         <v>172854</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>15347</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -5627,7 +5627,7 @@
         <v>13785636.864</v>
       </c>
       <c r="H28" t="n">
-        <v>46459797.504</v>
+        <v>11563121.664</v>
       </c>
       <c r="I28" t="n">
         <v>11677993.984</v>
@@ -5756,34 +5756,34 @@
         <v>43148201.984</v>
       </c>
       <c r="AY28" t="n">
-        <v>340556054.528</v>
+        <v>44480413.696</v>
       </c>
       <c r="AZ28" t="n">
-        <v>318201790.464</v>
+        <v>48433405.952</v>
       </c>
       <c r="BA28" t="n">
-        <v>327950925.824</v>
+        <v>52599562.24</v>
       </c>
       <c r="BB28" t="n">
-        <v>384224428.032</v>
+        <v>55080001.536</v>
       </c>
       <c r="BC28" t="n">
-        <v>368817602.56</v>
+        <v>55785140.224</v>
       </c>
       <c r="BD28" t="n">
-        <v>369588207.616</v>
+        <v>57130487.808</v>
       </c>
       <c r="BE28" t="n">
-        <v>367168978.944</v>
+        <v>58136186.88</v>
       </c>
       <c r="BF28" t="n">
-        <v>390000312.32</v>
+        <v>57898303.488</v>
       </c>
       <c r="BG28" t="n">
-        <v>426162290.688</v>
+        <v>55376928.768</v>
       </c>
       <c r="BH28" t="n">
-        <v>442248134.656</v>
+        <v>58843103.232</v>
       </c>
       <c r="BI28" t="n">
         <v>63206297.6</v>
@@ -5814,7 +5814,7 @@
         <v>5590578.176</v>
       </c>
       <c r="H29" t="n">
-        <v>38921154.56</v>
+        <v>6354921.984</v>
       </c>
       <c r="I29" t="n">
         <v>5249231.872</v>
@@ -5943,34 +5943,34 @@
         <v>18636482.56</v>
       </c>
       <c r="AY29" t="n">
-        <v>222902943.744</v>
+        <v>19870732.288</v>
       </c>
       <c r="AZ29" t="n">
-        <v>194330198.016</v>
+        <v>21437024.256</v>
       </c>
       <c r="BA29" t="n">
-        <v>288651378.688</v>
+        <v>24148316.16</v>
       </c>
       <c r="BB29" t="n">
-        <v>342865674.24</v>
+        <v>26677491.712</v>
       </c>
       <c r="BC29" t="n">
-        <v>326555664.384</v>
+        <v>28011788.288</v>
       </c>
       <c r="BD29" t="n">
-        <v>327216431.104</v>
+        <v>27774152.704</v>
       </c>
       <c r="BE29" t="n">
-        <v>322961408</v>
+        <v>27574734.848</v>
       </c>
       <c r="BF29" t="n">
-        <v>343291854.848</v>
+        <v>26293829.632</v>
       </c>
       <c r="BG29" t="n">
-        <v>378389987.328</v>
+        <v>26487126.016</v>
       </c>
       <c r="BH29" t="n">
-        <v>392866332.672</v>
+        <v>27869521.92</v>
       </c>
       <c r="BI29" t="n">
         <v>26636204.032</v>
@@ -6001,7 +6001,7 @@
         <v>3588731.904</v>
       </c>
       <c r="H30" t="n">
-        <v>6263844.864</v>
+        <v>3270877.952</v>
       </c>
       <c r="I30" t="n">
         <v>2259160.064</v>
@@ -6130,34 +6130,34 @@
         <v>7778784.768</v>
       </c>
       <c r="AY30" t="n">
-        <v>93103628.288</v>
+        <v>11152215.04</v>
       </c>
       <c r="AZ30" t="n">
-        <v>85064982.528</v>
+        <v>12164896.768</v>
       </c>
       <c r="BA30" t="n">
-        <v>86970925.05599999</v>
+        <v>14103783.424</v>
       </c>
       <c r="BB30" t="n">
-        <v>96041107.456</v>
+        <v>15174231.04</v>
       </c>
       <c r="BC30" t="n">
-        <v>100325892.096</v>
+        <v>15087780.864</v>
       </c>
       <c r="BD30" t="n">
-        <v>101544484.864</v>
+        <v>13597195.264</v>
       </c>
       <c r="BE30" t="n">
-        <v>103379296.256</v>
+        <v>13055298.56</v>
       </c>
       <c r="BF30" t="n">
-        <v>114999951.36</v>
+        <v>12136255.488</v>
       </c>
       <c r="BG30" t="n">
-        <v>120634425.344</v>
+        <v>12293548.032</v>
       </c>
       <c r="BH30" t="n">
-        <v>121499656.192</v>
+        <v>13203357.696</v>
       </c>
       <c r="BI30" t="n">
         <v>15293717.504</v>
@@ -6188,7 +6188,7 @@
         <v>27989</v>
       </c>
       <c r="H31" t="n">
-        <v>24549545.984</v>
+        <v>21903</v>
       </c>
       <c r="I31" t="n">
         <v>194606</v>
@@ -6317,34 +6317,34 @@
         <v>1444647.936</v>
       </c>
       <c r="AY31" t="n">
-        <v>71666466.816</v>
+        <v>2443</v>
       </c>
       <c r="AZ31" t="n">
-        <v>61083258.88</v>
+        <v>1182157.952</v>
       </c>
       <c r="BA31" t="n">
-        <v>71547756.544</v>
+        <v>2120697.984</v>
       </c>
       <c r="BB31" t="n">
-        <v>86812860.41599999</v>
+        <v>3050319.104</v>
       </c>
       <c r="BC31" t="n">
-        <v>95373500.41599999</v>
+        <v>3400306.944</v>
       </c>
       <c r="BD31" t="n">
-        <v>78555676.67200001</v>
+        <v>5881271.808</v>
       </c>
       <c r="BE31" t="n">
-        <v>91871657.984</v>
+        <v>5750193.152</v>
       </c>
       <c r="BF31" t="n">
-        <v>98603253.76000001</v>
+        <v>4300106.752</v>
       </c>
       <c r="BG31" t="n">
-        <v>105461620.736</v>
+        <v>4203425.024</v>
       </c>
       <c r="BH31" t="n">
-        <v>104225890.304</v>
+        <v>4703753.216</v>
       </c>
       <c r="BI31" t="n">
         <v>2596342.016</v>
@@ -6375,7 +6375,7 @@
         <v>253892</v>
       </c>
       <c r="H32" t="n">
-        <v>1227339.008</v>
+        <v>15979</v>
       </c>
       <c r="I32" t="n">
         <v>14602</v>
@@ -6504,34 +6504,34 @@
         <v>3872491.008</v>
       </c>
       <c r="AY32" t="n">
-        <v>24419100.672</v>
+        <v>2831661.056</v>
       </c>
       <c r="AZ32" t="n">
-        <v>14425290.752</v>
+        <v>2161702.912</v>
       </c>
       <c r="BA32" t="n">
-        <v>46642548.736</v>
+        <v>2379845.12</v>
       </c>
       <c r="BB32" t="n">
-        <v>49659183.104</v>
+        <v>2695258.112</v>
       </c>
       <c r="BC32" t="n">
-        <v>52174872.576</v>
+        <v>3474110.976</v>
       </c>
       <c r="BD32" t="n">
-        <v>51220627.456</v>
+        <v>2137180.032</v>
       </c>
       <c r="BE32" t="n">
-        <v>49859170.304</v>
+        <v>3449884.928</v>
       </c>
       <c r="BF32" t="n">
-        <v>47782043.648</v>
+        <v>4599670.784</v>
       </c>
       <c r="BG32" t="n">
-        <v>52684795.904</v>
+        <v>4829340.16</v>
       </c>
       <c r="BH32" t="n">
-        <v>54939271.168</v>
+        <v>5158390.784</v>
       </c>
       <c r="BI32" t="n">
         <v>4342290.944</v>
@@ -6562,7 +6562,7 @@
         <v>32333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>1594852.992</v>
       </c>
       <c r="I33" t="n">
         <v>1464781.952</v>
@@ -6691,34 +6691,34 @@
         <v>2043405.952</v>
       </c>
       <c r="AY33" t="n">
-        <v>468176.992</v>
+        <v>2297143.04</v>
       </c>
       <c r="AZ33" t="n">
-        <v>675195.008</v>
+        <v>2462544.896</v>
       </c>
       <c r="BA33" t="n">
-        <v>789753.9840000001</v>
+        <v>2405054.976</v>
       </c>
       <c r="BB33" t="n">
-        <v>1024048</v>
+        <v>2629191.936</v>
       </c>
       <c r="BC33" t="n">
-        <v>1020956.992</v>
+        <v>2445995.008</v>
       </c>
       <c r="BD33" t="n">
-        <v>984377.9840000001</v>
+        <v>2270533.12</v>
       </c>
       <c r="BE33" t="n">
-        <v>945641.9840000001</v>
+        <v>2018963.968</v>
       </c>
       <c r="BF33" t="n">
-        <v>999468.992</v>
+        <v>1825016.064</v>
       </c>
       <c r="BG33" t="n">
-        <v>1100339.968</v>
+        <v>1677238.016</v>
       </c>
       <c r="BH33" t="n">
-        <v>1347803.008</v>
+        <v>1691789.056</v>
       </c>
       <c r="BI33" t="n">
         <v>1726658.048</v>
@@ -6749,7 +6749,7 @@
         <v>1190</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="I34" t="n">
         <v>762</v>
@@ -6878,34 +6878,34 @@
         <v>0</v>
       </c>
       <c r="AY34" t="n">
-        <v>142200</v>
+        <v>0</v>
       </c>
       <c r="AZ34" t="n">
-        <v>647753.024</v>
+        <v>0</v>
       </c>
       <c r="BA34" t="n">
-        <v>487240.992</v>
+        <v>0</v>
       </c>
       <c r="BB34" t="n">
-        <v>257507.008</v>
+        <v>0</v>
       </c>
       <c r="BC34" t="n">
-        <v>313992.992</v>
+        <v>0</v>
       </c>
       <c r="BD34" t="n">
-        <v>239172.992</v>
+        <v>0</v>
       </c>
       <c r="BE34" t="n">
-        <v>255802</v>
+        <v>0</v>
       </c>
       <c r="BF34" t="n">
-        <v>814651.008</v>
+        <v>0</v>
       </c>
       <c r="BG34" t="n">
-        <v>346688.992</v>
+        <v>0</v>
       </c>
       <c r="BH34" t="n">
-        <v>401335.008</v>
+        <v>0</v>
       </c>
       <c r="BI34" t="n">
         <v>0</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>470256</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -7065,34 +7065,34 @@
         <v>0</v>
       </c>
       <c r="AY35" t="n">
-        <v>1083533.056</v>
+        <v>0</v>
       </c>
       <c r="AZ35" t="n">
-        <v>1210785.024</v>
+        <v>547</v>
       </c>
       <c r="BA35" t="n">
-        <v>12515713.024</v>
+        <v>3861</v>
       </c>
       <c r="BB35" t="n">
-        <v>13115256.832</v>
+        <v>1575</v>
       </c>
       <c r="BC35" t="n">
-        <v>13567551.488</v>
+        <v>11595</v>
       </c>
       <c r="BD35" t="n">
-        <v>14727149.568</v>
+        <v>388457.984</v>
       </c>
       <c r="BE35" t="n">
-        <v>11748656.128</v>
+        <v>390908</v>
       </c>
       <c r="BF35" t="n">
-        <v>11632338.944</v>
+        <v>355054.016</v>
       </c>
       <c r="BG35" t="n">
-        <v>11832118.272</v>
+        <v>392102.016</v>
       </c>
       <c r="BH35" t="n">
-        <v>16930096.128</v>
+        <v>339</v>
       </c>
       <c r="BI35" t="n">
         <v>8342</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>55653</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>1686441.984</v>
       </c>
       <c r="H38" t="n">
-        <v>6354514.944</v>
+        <v>1450786.944</v>
       </c>
       <c r="I38" t="n">
         <v>1315320.064</v>
@@ -7626,34 +7626,34 @@
         <v>3497152</v>
       </c>
       <c r="AY38" t="n">
-        <v>32019841.024</v>
+        <v>3587269.12</v>
       </c>
       <c r="AZ38" t="n">
-        <v>31222927.36</v>
+        <v>3465175.04</v>
       </c>
       <c r="BA38" t="n">
-        <v>69697437.69599999</v>
+        <v>3135073.024</v>
       </c>
       <c r="BB38" t="n">
-        <v>95955705.85600001</v>
+        <v>3126917.12</v>
       </c>
       <c r="BC38" t="n">
-        <v>63778873.344</v>
+        <v>3592000</v>
       </c>
       <c r="BD38" t="n">
-        <v>79944925.184</v>
+        <v>3499514.112</v>
       </c>
       <c r="BE38" t="n">
-        <v>64901185.536</v>
+        <v>2909485.056</v>
       </c>
       <c r="BF38" t="n">
-        <v>68460118.016</v>
+        <v>3077726.976</v>
       </c>
       <c r="BG38" t="n">
-        <v>86329974.78399999</v>
+        <v>3091472.896</v>
       </c>
       <c r="BH38" t="n">
-        <v>93522288.64</v>
+        <v>3111891.968</v>
       </c>
       <c r="BI38" t="n">
         <v>2668852.992</v>
@@ -7684,7 +7684,7 @@
         <v>6866092.032</v>
       </c>
       <c r="H39" t="n">
-        <v>1911758.976</v>
+        <v>5007638.016</v>
       </c>
       <c r="I39" t="n">
         <v>4851693.056</v>
@@ -7813,34 +7813,34 @@
         <v>18953160.704</v>
       </c>
       <c r="AY39" t="n">
-        <v>81041301.50399999</v>
+        <v>18933491.712</v>
       </c>
       <c r="AZ39" t="n">
-        <v>86143262.72</v>
+        <v>21197752.32</v>
       </c>
       <c r="BA39" t="n">
-        <v>0</v>
+        <v>20779560.96</v>
       </c>
       <c r="BB39" t="n">
-        <v>0</v>
+        <v>20683694.08</v>
       </c>
       <c r="BC39" t="n">
-        <v>0</v>
+        <v>19981723.648</v>
       </c>
       <c r="BD39" t="n">
-        <v>0</v>
+        <v>21650292.736</v>
       </c>
       <c r="BE39" t="n">
-        <v>0</v>
+        <v>22749896.704</v>
       </c>
       <c r="BF39" t="n">
-        <v>0</v>
+        <v>23707920.384</v>
       </c>
       <c r="BG39" t="n">
-        <v>0</v>
+        <v>20884244.48</v>
       </c>
       <c r="BH39" t="n">
-        <v>0</v>
+        <v>22866259.968</v>
       </c>
       <c r="BI39" t="n">
         <v>28507299.84</v>
@@ -7871,7 +7871,7 @@
         <v>2699351.04</v>
       </c>
       <c r="H40" t="n">
-        <v>1158736</v>
+        <v>2321105.92</v>
       </c>
       <c r="I40" t="n">
         <v>2156602.88</v>
@@ -8000,34 +8000,34 @@
         <v>12259660.8</v>
       </c>
       <c r="AY40" t="n">
-        <v>4066673.92</v>
+        <v>11346022.4</v>
       </c>
       <c r="AZ40" t="n">
-        <v>3926093.056</v>
+        <v>12515843.072</v>
       </c>
       <c r="BA40" t="n">
-        <v>0</v>
+        <v>11789624.32</v>
       </c>
       <c r="BB40" t="n">
-        <v>0</v>
+        <v>10858008.576</v>
       </c>
       <c r="BC40" t="n">
-        <v>0</v>
+        <v>10452446.208</v>
       </c>
       <c r="BD40" t="n">
-        <v>0</v>
+        <v>12509327.36</v>
       </c>
       <c r="BE40" t="n">
-        <v>0</v>
+        <v>14794359.808</v>
       </c>
       <c r="BF40" t="n">
-        <v>0</v>
+        <v>16858267.648</v>
       </c>
       <c r="BG40" t="n">
-        <v>0</v>
+        <v>12819298.304</v>
       </c>
       <c r="BH40" t="n">
-        <v>0</v>
+        <v>14535327.744</v>
       </c>
       <c r="BI40" t="n">
         <v>14233190.4</v>
@@ -8058,7 +8058,7 @@
         <v>69880</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>114530</v>
       </c>
       <c r="I41" t="n">
         <v>116502</v>
@@ -8187,34 +8187,34 @@
         <v>959</v>
       </c>
       <c r="AY41" t="n">
-        <v>1309608.96</v>
+        <v>4500</v>
       </c>
       <c r="AZ41" t="n">
-        <v>1347581.056</v>
+        <v>4404</v>
       </c>
       <c r="BA41" t="n">
-        <v>0</v>
+        <v>3855</v>
       </c>
       <c r="BB41" t="n">
-        <v>0</v>
+        <v>3350</v>
       </c>
       <c r="BC41" t="n">
-        <v>0</v>
+        <v>3413</v>
       </c>
       <c r="BD41" t="n">
-        <v>0</v>
+        <v>3522</v>
       </c>
       <c r="BE41" t="n">
-        <v>0</v>
+        <v>2972</v>
       </c>
       <c r="BF41" t="n">
-        <v>0</v>
+        <v>2971</v>
       </c>
       <c r="BG41" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="BH41" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="BI41" t="n">
         <v>2447430.912</v>
@@ -8245,7 +8245,7 @@
         <v>846700.032</v>
       </c>
       <c r="H42" t="n">
-        <v>72140</v>
+        <v>833100.032</v>
       </c>
       <c r="I42" t="n">
         <v>795491.968</v>
@@ -8374,34 +8374,34 @@
         <v>6350939.136</v>
       </c>
       <c r="AY42" t="n">
-        <v>24011120.64</v>
+        <v>7249058.816</v>
       </c>
       <c r="AZ42" t="n">
-        <v>29810595.84</v>
+        <v>7218704.896</v>
       </c>
       <c r="BA42" t="n">
-        <v>0</v>
+        <v>7771036.16</v>
       </c>
       <c r="BB42" t="n">
-        <v>0</v>
+        <v>8679508.992000001</v>
       </c>
       <c r="BC42" t="n">
-        <v>0</v>
+        <v>8411128.832</v>
       </c>
       <c r="BD42" t="n">
-        <v>0</v>
+        <v>8481037.823999999</v>
       </c>
       <c r="BE42" t="n">
-        <v>0</v>
+        <v>7338679.808</v>
       </c>
       <c r="BF42" t="n">
-        <v>0</v>
+        <v>6338897.92</v>
       </c>
       <c r="BG42" t="n">
-        <v>0</v>
+        <v>7574486.016</v>
       </c>
       <c r="BH42" t="n">
-        <v>0</v>
+        <v>7880613.888</v>
       </c>
       <c r="BI42" t="n">
         <v>11370622.976</v>
@@ -8938,31 +8938,31 @@
         <v>0</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0</v>
+        <v>821796.992</v>
       </c>
       <c r="BA45" t="n">
-        <v>0</v>
+        <v>710670.0159999999</v>
       </c>
       <c r="BB45" t="n">
-        <v>0</v>
+        <v>772902.976</v>
       </c>
       <c r="BC45" t="n">
-        <v>0</v>
+        <v>793470.976</v>
       </c>
       <c r="BD45" t="n">
-        <v>0</v>
+        <v>391327.008</v>
       </c>
       <c r="BE45" t="n">
-        <v>0</v>
+        <v>381030.016</v>
       </c>
       <c r="BF45" t="n">
-        <v>0</v>
+        <v>361440</v>
       </c>
       <c r="BG45" t="n">
-        <v>0</v>
+        <v>375569.984</v>
       </c>
       <c r="BH45" t="n">
-        <v>0</v>
+        <v>363201.984</v>
       </c>
       <c r="BI45" t="n">
         <v>373326.016</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>44447</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -9122,10 +9122,10 @@
         <v>0</v>
       </c>
       <c r="AY46" t="n">
-        <v>6503804.928</v>
+        <v>0</v>
       </c>
       <c r="AZ46" t="n">
-        <v>6482382.848</v>
+        <v>0</v>
       </c>
       <c r="BA46" t="n">
         <v>0</v>
@@ -9367,7 +9367,7 @@
         <v>3250160.896</v>
       </c>
       <c r="H48" t="n">
-        <v>636435.968</v>
+        <v>1738902.016</v>
       </c>
       <c r="I48" t="n">
         <v>1783096.064</v>
@@ -9496,34 +9496,34 @@
         <v>341601.984</v>
       </c>
       <c r="AY48" t="n">
-        <v>45150097.408</v>
+        <v>333911.008</v>
       </c>
       <c r="AZ48" t="n">
-        <v>44576608.256</v>
+        <v>637001.9840000001</v>
       </c>
       <c r="BA48" t="n">
-        <v>0</v>
+        <v>504375.008</v>
       </c>
       <c r="BB48" t="n">
-        <v>0</v>
+        <v>369923.008</v>
       </c>
       <c r="BC48" t="n">
-        <v>0</v>
+        <v>321264</v>
       </c>
       <c r="BD48" t="n">
-        <v>0</v>
+        <v>265078</v>
       </c>
       <c r="BE48" t="n">
-        <v>0</v>
+        <v>232852.992</v>
       </c>
       <c r="BF48" t="n">
-        <v>0</v>
+        <v>146340.992</v>
       </c>
       <c r="BG48" t="n">
-        <v>0</v>
+        <v>114725</v>
       </c>
       <c r="BH48" t="n">
-        <v>0</v>
+        <v>86972</v>
       </c>
       <c r="BI48" t="n">
         <v>82730</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>24290</v>
+        <v>3545</v>
       </c>
       <c r="I49" t="n">
         <v>129</v>
@@ -9683,10 +9683,10 @@
         <v>0</v>
       </c>
       <c r="AY49" t="n">
-        <v>352454.016</v>
+        <v>0</v>
       </c>
       <c r="AZ49" t="n">
-        <v>348596</v>
+        <v>0</v>
       </c>
       <c r="BA49" t="n">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>1327021.056</v>
       </c>
       <c r="H51" t="n">
-        <v>5602592.768</v>
+        <v>197016.992</v>
       </c>
       <c r="I51" t="n">
         <v>1576940.032</v>
@@ -10057,34 +10057,34 @@
         <v>5558555.136</v>
       </c>
       <c r="AY51" t="n">
-        <v>36259352.576</v>
+        <v>5676188.16</v>
       </c>
       <c r="AZ51" t="n">
-        <v>37379743.744</v>
+        <v>5798632.96</v>
       </c>
       <c r="BA51" t="n">
-        <v>39299526.656</v>
+        <v>7671689.216</v>
       </c>
       <c r="BB51" t="n">
-        <v>41358737.408</v>
+        <v>7718812.16</v>
       </c>
       <c r="BC51" t="n">
-        <v>42261950.464</v>
+        <v>7791627.776</v>
       </c>
       <c r="BD51" t="n">
-        <v>42371768.32</v>
+        <v>7706045.952</v>
       </c>
       <c r="BE51" t="n">
-        <v>44207583.232</v>
+        <v>7811557.888</v>
       </c>
       <c r="BF51" t="n">
-        <v>46708473.856</v>
+        <v>7896555.008</v>
       </c>
       <c r="BG51" t="n">
-        <v>47772327.936</v>
+        <v>8005556.224</v>
       </c>
       <c r="BH51" t="n">
-        <v>49381806.08</v>
+        <v>8107321.856</v>
       </c>
       <c r="BI51" t="n">
         <v>8062791.168</v>
@@ -10115,7 +10115,7 @@
         <v>1108091.008</v>
       </c>
       <c r="H52" t="n">
-        <v>2971350.016</v>
+        <v>1108091.008</v>
       </c>
       <c r="I52" t="n">
         <v>1108091.008</v>
@@ -10244,34 +10244,34 @@
         <v>4175222.016</v>
       </c>
       <c r="AY52" t="n">
-        <v>15510364.16</v>
+        <v>4175222.016</v>
       </c>
       <c r="AZ52" t="n">
-        <v>15760363.52</v>
+        <v>4175222.016</v>
       </c>
       <c r="BA52" t="n">
-        <v>15760363.52</v>
+        <v>5928320</v>
       </c>
       <c r="BB52" t="n">
-        <v>15760363.52</v>
+        <v>5928320</v>
       </c>
       <c r="BC52" t="n">
-        <v>15664400.384</v>
+        <v>5928320</v>
       </c>
       <c r="BD52" t="n">
-        <v>15760363.52</v>
+        <v>5928320</v>
       </c>
       <c r="BE52" t="n">
-        <v>15760363.52</v>
+        <v>5928320</v>
       </c>
       <c r="BF52" t="n">
-        <v>15760363.52</v>
+        <v>5928320</v>
       </c>
       <c r="BG52" t="n">
-        <v>15760363.52</v>
+        <v>5928320</v>
       </c>
       <c r="BH52" t="n">
-        <v>15760363.52</v>
+        <v>5928320</v>
       </c>
       <c r="BI52" t="n">
         <v>5928320</v>
@@ -10302,7 +10302,7 @@
         <v>172</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I53" t="n">
         <v>172</v>
@@ -10431,34 +10431,34 @@
         <v>207322</v>
       </c>
       <c r="AY53" t="n">
-        <v>652515.008</v>
+        <v>207322</v>
       </c>
       <c r="AZ53" t="n">
-        <v>652515.008</v>
+        <v>207322</v>
       </c>
       <c r="BA53" t="n">
-        <v>652515.008</v>
+        <v>207322</v>
       </c>
       <c r="BB53" t="n">
-        <v>652515.008</v>
+        <v>207322</v>
       </c>
       <c r="BC53" t="n">
-        <v>652515.008</v>
+        <v>207322</v>
       </c>
       <c r="BD53" t="n">
-        <v>652515.008</v>
+        <v>207322</v>
       </c>
       <c r="BE53" t="n">
-        <v>652515.008</v>
+        <v>207322</v>
       </c>
       <c r="BF53" t="n">
-        <v>652515.008</v>
+        <v>207322</v>
       </c>
       <c r="BG53" t="n">
-        <v>652515.008</v>
+        <v>207322</v>
       </c>
       <c r="BH53" t="n">
-        <v>652515.008</v>
+        <v>207322</v>
       </c>
       <c r="BI53" t="n">
         <v>207322</v>
@@ -10676,7 +10676,7 @@
         <v>218758</v>
       </c>
       <c r="H55" t="n">
-        <v>2631243.008</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -10805,34 +10805,34 @@
         <v>958654.976</v>
       </c>
       <c r="AY55" t="n">
-        <v>14508646.4</v>
+        <v>958654.976</v>
       </c>
       <c r="AZ55" t="n">
-        <v>19395411.968</v>
+        <v>1436523.008</v>
       </c>
       <c r="BA55" t="n">
-        <v>19379429.376</v>
+        <v>1436523.008</v>
       </c>
       <c r="BB55" t="n">
-        <v>19522660.352</v>
+        <v>1379798.016</v>
       </c>
       <c r="BC55" t="n">
-        <v>19590060.032</v>
+        <v>1347622.016</v>
       </c>
       <c r="BD55" t="n">
-        <v>24485152.768</v>
+        <v>1587776</v>
       </c>
       <c r="BE55" t="n">
-        <v>26317199.36</v>
+        <v>1587776</v>
       </c>
       <c r="BF55" t="n">
-        <v>24412700.672</v>
+        <v>1552508.032</v>
       </c>
       <c r="BG55" t="n">
-        <v>24412700.672</v>
+        <v>1568002.944</v>
       </c>
       <c r="BH55" t="n">
-        <v>31133542.4</v>
+        <v>1985885.952</v>
       </c>
       <c r="BI55" t="n">
         <v>1820656</v>
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
         <v>-11</v>
@@ -10992,34 +10992,34 @@
         <v>-21767</v>
       </c>
       <c r="AY56" t="n">
-        <v>1789523.968</v>
+        <v>-20642</v>
       </c>
       <c r="AZ56" t="n">
-        <v>1571456</v>
+        <v>-20434</v>
       </c>
       <c r="BA56" t="n">
-        <v>1564636.032</v>
+        <v>-19498</v>
       </c>
       <c r="BB56" t="n">
-        <v>1613805.952</v>
+        <v>-18552</v>
       </c>
       <c r="BC56" t="n">
-        <v>1557926.016</v>
+        <v>-17894</v>
       </c>
       <c r="BD56" t="n">
-        <v>1473735.936</v>
+        <v>-17372</v>
       </c>
       <c r="BE56" t="n">
-        <v>1477507.968</v>
+        <v>-16735</v>
       </c>
       <c r="BF56" t="n">
-        <v>1537150.976</v>
+        <v>0</v>
       </c>
       <c r="BG56" t="n">
-        <v>1508452.992</v>
+        <v>-14695</v>
       </c>
       <c r="BH56" t="n">
-        <v>1835384.96</v>
+        <v>-14206</v>
       </c>
       <c r="BI56" t="n">
         <v>-13217</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>-911251.008</v>
       </c>
       <c r="I57" t="n">
         <v>468688</v>
@@ -11179,31 +11179,31 @@
         <v>239123.008</v>
       </c>
       <c r="AY57" t="n">
-        <v>3798304</v>
+        <v>355631.008</v>
       </c>
       <c r="AZ57" t="n">
         <v>0</v>
       </c>
       <c r="BA57" t="n">
-        <v>1942584.96</v>
+        <v>119022</v>
       </c>
       <c r="BB57" t="n">
-        <v>3809390.08</v>
+        <v>221924</v>
       </c>
       <c r="BC57" t="n">
-        <v>4797050.88</v>
+        <v>326257.984</v>
       </c>
       <c r="BD57" t="n">
         <v>0</v>
       </c>
       <c r="BE57" t="n">
-        <v>0</v>
+        <v>104875</v>
       </c>
       <c r="BF57" t="n">
-        <v>4345744.896</v>
+        <v>208404.992</v>
       </c>
       <c r="BG57" t="n">
-        <v>5438295.04</v>
+        <v>316606.016</v>
       </c>
       <c r="BH57" t="n">
         <v>0</v>
@@ -11236,7 +11236,9 @@
       <c r="G58" t="n">
         <v>-2470519.04</v>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>1031326.016</v>
+      </c>
       <c r="I58" t="n">
         <v>1031326.016</v>
       </c>
@@ -11364,34 +11366,34 @@
         <v>2738102.016</v>
       </c>
       <c r="AY58" t="n">
-        <v>2558382.08</v>
+        <v>3015867.904</v>
       </c>
       <c r="AZ58" t="n">
-        <v>5792865.28</v>
+        <v>2984258.048</v>
       </c>
       <c r="BA58" t="n">
-        <v>8541150.208000001</v>
+        <v>3876542.976</v>
       </c>
       <c r="BB58" t="n">
-        <v>19703531.52</v>
+        <v>3691649.024</v>
       </c>
       <c r="BC58" t="n">
-        <v>10380596.224</v>
+        <v>3668101.12</v>
       </c>
       <c r="BD58" t="n">
-        <v>11003955.2</v>
+        <v>3867922.944</v>
       </c>
       <c r="BE58" t="n">
-        <v>8702659.584000001</v>
+        <v>3811425.024</v>
       </c>
       <c r="BF58" t="n">
-        <v>13105568.768</v>
+        <v>3922187.008</v>
       </c>
       <c r="BG58" t="n">
-        <v>11600446.464</v>
+        <v>3986143.232</v>
       </c>
       <c r="BH58" t="n">
-        <v>12611621.888</v>
+        <v>3959433.984</v>
       </c>
       <c r="BI58" t="n">
         <v>3998526.976</v>
@@ -11421,7 +11423,9 @@
       <c r="G59" t="n">
         <v>1230430.976</v>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>-462824</v>
+      </c>
       <c r="I59" t="n">
         <v>-462824</v>
       </c>
@@ -11549,34 +11553,34 @@
         <v>-913731.968</v>
       </c>
       <c r="AY59" t="n">
-        <v>-2112909.056</v>
+        <v>-1398401.024</v>
       </c>
       <c r="AZ59" t="n">
-        <v>-3982851.584</v>
+        <v>-1548114.048</v>
       </c>
       <c r="BA59" t="n">
-        <v>-5983563.776</v>
+        <v>-1985191.04</v>
       </c>
       <c r="BB59" t="n">
-        <v>-17358344.192</v>
+        <v>-1791101.056</v>
       </c>
       <c r="BC59" t="n">
-        <v>-7898498.048</v>
+        <v>-1950440.064</v>
       </c>
       <c r="BD59" t="n">
-        <v>-9784712.192</v>
+        <v>-2088162.048</v>
       </c>
       <c r="BE59" t="n">
-        <v>-6410997.248</v>
+        <v>-1985366.016</v>
       </c>
       <c r="BF59" t="n">
-        <v>-10025566.208</v>
+        <v>-1932216.96</v>
       </c>
       <c r="BG59" t="n">
-        <v>-9362500.607999999</v>
+        <v>-1856983.168</v>
       </c>
       <c r="BH59" t="n">
-        <v>-10346498.048</v>
+        <v>-2063837.952</v>
       </c>
       <c r="BI59" t="n">
         <v>-2188396.032</v>
@@ -11606,7 +11610,9 @@
       <c r="G60" t="n">
         <v>-1240087.936</v>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>568502.0159999999</v>
+      </c>
       <c r="I60" t="n">
         <v>568502.0159999999</v>
       </c>
@@ -11734,34 +11740,34 @@
         <v>1824370.048</v>
       </c>
       <c r="AY60" t="n">
-        <v>445472.992</v>
+        <v>1617467.136</v>
       </c>
       <c r="AZ60" t="n">
-        <v>1810011.776</v>
+        <v>1436144</v>
       </c>
       <c r="BA60" t="n">
-        <v>2557585.92</v>
+        <v>1891352.064</v>
       </c>
       <c r="BB60" t="n">
-        <v>2345187.072</v>
+        <v>1900547.968</v>
       </c>
       <c r="BC60" t="n">
-        <v>2482097.92</v>
+        <v>1717660.928</v>
       </c>
       <c r="BD60" t="n">
-        <v>1219238.912</v>
+        <v>1779761.024</v>
       </c>
       <c r="BE60" t="n">
-        <v>2291663.104</v>
+        <v>1826059.008</v>
       </c>
       <c r="BF60" t="n">
-        <v>3080003.072</v>
+        <v>1989970.048</v>
       </c>
       <c r="BG60" t="n">
-        <v>2237945.088</v>
+        <v>2129159.936</v>
       </c>
       <c r="BH60" t="n">
-        <v>2265126.912</v>
+        <v>1895596.032</v>
       </c>
       <c r="BI60" t="n">
         <v>1810130.944</v>
@@ -11791,7 +11797,9 @@
       <c r="G61" t="n">
         <v>898150.0159999999</v>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>-394193.984</v>
+      </c>
       <c r="I61" t="n">
         <v>-394193.984</v>
       </c>
@@ -11919,34 +11927,34 @@
         <v>-1558109.056</v>
       </c>
       <c r="AY61" t="n">
-        <v>670838.0159999999</v>
+        <v>-1316647.04</v>
       </c>
       <c r="AZ61" t="n">
-        <v>214835.968</v>
+        <v>-1196366.976</v>
       </c>
       <c r="BA61" t="n">
-        <v>422772.992</v>
+        <v>-1702816</v>
       </c>
       <c r="BB61" t="n">
-        <v>69402</v>
+        <v>-1704193.024</v>
       </c>
       <c r="BC61" t="n">
-        <v>342134.016</v>
+        <v>-1534343.808</v>
       </c>
       <c r="BD61" t="n">
-        <v>249783.024</v>
+        <v>-1584765.056</v>
       </c>
       <c r="BE61" t="n">
-        <v>386355.008</v>
+        <v>-1632039.04</v>
       </c>
       <c r="BF61" t="n">
-        <v>-53337</v>
+        <v>-1780388.992</v>
       </c>
       <c r="BG61" t="n">
-        <v>860262.976</v>
+        <v>-1915954.816</v>
       </c>
       <c r="BH61" t="n">
-        <v>840049.9840000001</v>
+        <v>-1670241.024</v>
       </c>
       <c r="BI61" t="n">
         <v>-1602368</v>
@@ -11976,7 +11984,9 @@
       <c r="G62" t="n">
         <v>-22014</v>
       </c>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>34862</v>
+      </c>
       <c r="I62" t="n">
         <v>34862</v>
       </c>
@@ -12104,34 +12114,34 @@
         <v>159948</v>
       </c>
       <c r="AY62" t="n">
-        <v>992924.992</v>
+        <v>208286.992</v>
       </c>
       <c r="AZ62" t="n">
-        <v>780568.8959999999</v>
+        <v>174274</v>
       </c>
       <c r="BA62" t="n">
-        <v>662278.0159999999</v>
+        <v>170508.992</v>
       </c>
       <c r="BB62" t="n">
-        <v>877622.976</v>
+        <v>196712</v>
       </c>
       <c r="BC62" t="n">
-        <v>1048643.968</v>
+        <v>221780.016</v>
       </c>
       <c r="BD62" t="n">
-        <v>983599.936</v>
+        <v>217256.992</v>
       </c>
       <c r="BE62" t="n">
-        <v>828304</v>
+        <v>219047.008</v>
       </c>
       <c r="BF62" t="n">
-        <v>677804.992</v>
+        <v>232072.992</v>
       </c>
       <c r="BG62" t="n">
-        <v>876158.976</v>
+        <v>292984.992</v>
       </c>
       <c r="BH62" t="n">
-        <v>671011.008</v>
+        <v>330844.992</v>
       </c>
       <c r="BI62" t="n">
         <v>336968.992</v>
@@ -12161,7 +12171,9 @@
       <c r="G63" t="n">
         <v>31484</v>
       </c>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>-10753</v>
+      </c>
       <c r="I63" t="n">
         <v>-10753</v>
       </c>
@@ -12289,34 +12301,34 @@
         <v>-178840</v>
       </c>
       <c r="AY63" t="n">
-        <v>-153628.992</v>
+        <v>-225672.992</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-248469.024</v>
+        <v>-209980.992</v>
       </c>
       <c r="BA63" t="n">
-        <v>-219359.008</v>
+        <v>-200852.992</v>
       </c>
       <c r="BB63" t="n">
-        <v>-234532.992</v>
+        <v>-221572</v>
       </c>
       <c r="BC63" t="n">
-        <v>-244347.008</v>
+        <v>-211104.032</v>
       </c>
       <c r="BD63" t="n">
-        <v>-338175.008</v>
+        <v>-198075.008</v>
       </c>
       <c r="BE63" t="n">
-        <v>-306049.984</v>
+        <v>-184852</v>
       </c>
       <c r="BF63" t="n">
-        <v>-292408.992</v>
+        <v>-238476</v>
       </c>
       <c r="BG63" t="n">
-        <v>-282928.992</v>
+        <v>-233278.976</v>
       </c>
       <c r="BH63" t="n">
-        <v>-375216.064</v>
+        <v>-210359.008</v>
       </c>
       <c r="BI63" t="n">
         <v>-219542</v>
@@ -12346,7 +12358,9 @@
       <c r="G64" t="n">
         <v>1003312</v>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>-462771.008</v>
+      </c>
       <c r="I64" t="n">
         <v>-462771.008</v>
       </c>
@@ -12474,34 +12488,34 @@
         <v>-1031513.984</v>
       </c>
       <c r="AY64" t="n">
-        <v>-550547.008</v>
+        <v>-884472.064</v>
       </c>
       <c r="AZ64" t="n">
-        <v>-733662.0159999999</v>
+        <v>-765313.024</v>
       </c>
       <c r="BA64" t="n">
-        <v>-692905.024</v>
+        <v>-987048</v>
       </c>
       <c r="BB64" t="n">
-        <v>-832449.024</v>
+        <v>-943712</v>
       </c>
       <c r="BC64" t="n">
-        <v>-699171.008</v>
+        <v>-1035971.008</v>
       </c>
       <c r="BD64" t="n">
-        <v>-1022608.896</v>
+        <v>-966243.008</v>
       </c>
       <c r="BE64" t="n">
-        <v>-945912</v>
+        <v>-862323.008</v>
       </c>
       <c r="BF64" t="n">
-        <v>-971225.024</v>
+        <v>-879548.032</v>
       </c>
       <c r="BG64" t="n">
-        <v>-987264</v>
+        <v>-1042797.952</v>
       </c>
       <c r="BH64" t="n">
-        <v>-1090302.848</v>
+        <v>-985129.9840000001</v>
       </c>
       <c r="BI64" t="n">
         <v>-893385.024</v>
@@ -12531,7 +12545,9 @@
       <c r="G65" t="n">
         <v>65714</v>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>-47891</v>
+      </c>
       <c r="I65" t="n">
         <v>-47891</v>
       </c>
@@ -12659,34 +12675,34 @@
         <v>-97355</v>
       </c>
       <c r="AY65" t="n">
-        <v>-118875</v>
+        <v>-98010.992</v>
       </c>
       <c r="AZ65" t="n">
-        <v>-141991.008</v>
+        <v>-76983</v>
       </c>
       <c r="BA65" t="n">
-        <v>-279795.008</v>
+        <v>-102767</v>
       </c>
       <c r="BB65" t="n">
-        <v>-128938</v>
+        <v>-120076</v>
       </c>
       <c r="BC65" t="n">
-        <v>-205247.008</v>
+        <v>-108767.984</v>
       </c>
       <c r="BD65" t="n">
-        <v>-226603.984</v>
+        <v>-113774</v>
       </c>
       <c r="BE65" t="n">
-        <v>-192186</v>
+        <v>-111263</v>
       </c>
       <c r="BF65" t="n">
-        <v>-268576</v>
+        <v>-121419</v>
       </c>
       <c r="BG65" t="n">
-        <v>-159374</v>
+        <v>-134185.984</v>
       </c>
       <c r="BH65" t="n">
-        <v>-179078.016</v>
+        <v>-224891.008</v>
       </c>
       <c r="BI65" t="n">
         <v>-130523</v>
@@ -12716,7 +12732,9 @@
       <c r="G66" t="n">
         <v>-275207.008</v>
       </c>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>124101</v>
+      </c>
       <c r="I66" t="n">
         <v>124101</v>
       </c>
@@ -12844,34 +12862,34 @@
         <v>227674</v>
       </c>
       <c r="AY66" t="n">
-        <v>98479</v>
+        <v>184636</v>
       </c>
       <c r="AZ66" t="n">
-        <v>254292.032</v>
+        <v>70016</v>
       </c>
       <c r="BA66" t="n">
-        <v>0</v>
+        <v>113957</v>
       </c>
       <c r="BB66" t="n">
-        <v>0</v>
+        <v>107577</v>
       </c>
       <c r="BC66" t="n">
-        <v>0</v>
+        <v>283595.008</v>
       </c>
       <c r="BD66" t="n">
-        <v>0</v>
+        <v>324179.008</v>
       </c>
       <c r="BE66" t="n">
-        <v>0</v>
+        <v>235066</v>
       </c>
       <c r="BF66" t="n">
-        <v>230803.008</v>
+        <v>263088</v>
       </c>
       <c r="BG66" t="n">
-        <v>76747</v>
+        <v>268648</v>
       </c>
       <c r="BH66" t="n">
-        <v>-307550.016</v>
+        <v>271345.984</v>
       </c>
       <c r="BI66" t="n">
         <v>349224.992</v>
@@ -12901,7 +12919,9 @@
       <c r="G67" t="n">
         <v>103832</v>
       </c>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>-25132</v>
+      </c>
       <c r="I67" t="n">
         <v>-25132</v>
       </c>
@@ -13029,34 +13049,34 @@
         <v>-641609.9840000001</v>
       </c>
       <c r="AY67" t="n">
-        <v>-181112.992</v>
+        <v>-534378.048</v>
       </c>
       <c r="AZ67" t="n">
-        <v>-694883.968</v>
+        <v>-395904</v>
       </c>
       <c r="BA67" t="n">
-        <v>-42020</v>
+        <v>-719169.024</v>
       </c>
       <c r="BB67" t="n">
-        <v>-141335.008</v>
+        <v>-753833.024</v>
       </c>
       <c r="BC67" t="n">
-        <v>-347984</v>
+        <v>-725807.04</v>
       </c>
       <c r="BD67" t="n">
-        <v>-274166.016</v>
+        <v>-885785.024</v>
       </c>
       <c r="BE67" t="n">
-        <v>-13246</v>
+        <v>-957097.024</v>
       </c>
       <c r="BF67" t="n">
-        <v>-3472</v>
+        <v>-1062822.976</v>
       </c>
       <c r="BG67" t="n">
-        <v>-85361</v>
+        <v>-1095289.088</v>
       </c>
       <c r="BH67" t="n">
-        <v>147503.008</v>
+        <v>-876398.976</v>
       </c>
       <c r="BI67" t="n">
         <v>-1130126.976</v>
@@ -13086,7 +13106,9 @@
       <c r="G68" t="n">
         <v>-8971</v>
       </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>-6610</v>
+      </c>
       <c r="I68" t="n">
         <v>-6610</v>
       </c>
@@ -13214,34 +13236,34 @@
         <v>3588</v>
       </c>
       <c r="AY68" t="n">
-        <v>583598.0159999999</v>
+        <v>32964</v>
       </c>
       <c r="AZ68" t="n">
-        <v>998980.992</v>
+        <v>7524</v>
       </c>
       <c r="BA68" t="n">
-        <v>994574.0159999999</v>
+        <v>22555</v>
       </c>
       <c r="BB68" t="n">
-        <v>529033.9840000001</v>
+        <v>30711</v>
       </c>
       <c r="BC68" t="n">
-        <v>790238.976</v>
+        <v>41931</v>
       </c>
       <c r="BD68" t="n">
-        <v>1127737.088</v>
+        <v>37676</v>
       </c>
       <c r="BE68" t="n">
-        <v>1015444.992</v>
+        <v>29383</v>
       </c>
       <c r="BF68" t="n">
-        <v>573737.024</v>
+        <v>26716</v>
       </c>
       <c r="BG68" t="n">
-        <v>1422285.056</v>
+        <v>27964</v>
       </c>
       <c r="BH68" t="n">
-        <v>1973682.944</v>
+        <v>24347</v>
       </c>
       <c r="BI68" t="n">
         <v>85015</v>
@@ -13271,7 +13293,9 @@
       <c r="G69" t="n">
         <v>-341937.984</v>
       </c>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>174308</v>
+      </c>
       <c r="I69" t="n">
         <v>174308</v>
       </c>
@@ -13399,34 +13423,34 @@
         <v>266260.992</v>
       </c>
       <c r="AY69" t="n">
-        <v>1116311.04</v>
+        <v>300820</v>
       </c>
       <c r="AZ69" t="n">
-        <v>2024847.872</v>
+        <v>239776.992</v>
       </c>
       <c r="BA69" t="n">
-        <v>2980358.912</v>
+        <v>188536</v>
       </c>
       <c r="BB69" t="n">
-        <v>2414588.928</v>
+        <v>196355.008</v>
       </c>
       <c r="BC69" t="n">
-        <v>2824231.936</v>
+        <v>183317.024</v>
       </c>
       <c r="BD69" t="n">
-        <v>1469022.464</v>
+        <v>194996</v>
       </c>
       <c r="BE69" t="n">
-        <v>2678018.048</v>
+        <v>194020</v>
       </c>
       <c r="BF69" t="n">
-        <v>3026665.984</v>
+        <v>209580.992</v>
       </c>
       <c r="BG69" t="n">
-        <v>3098208</v>
+        <v>213204.992</v>
       </c>
       <c r="BH69" t="n">
-        <v>3105177.344</v>
+        <v>225355.008</v>
       </c>
       <c r="BI69" t="n">
         <v>207763.008</v>
@@ -13456,7 +13480,9 @@
       <c r="G70" t="n">
         <v>144760</v>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>-36844</v>
+      </c>
       <c r="I70" t="n">
         <v>-36844</v>
       </c>
@@ -13584,34 +13610,34 @@
         <v>5223</v>
       </c>
       <c r="AY70" t="n">
-        <v>793332.992</v>
+        <v>14594</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-72238</v>
+        <v>4441</v>
       </c>
       <c r="BA70" t="n">
-        <v>37872</v>
+        <v>7707</v>
       </c>
       <c r="BB70" t="n">
-        <v>-10410</v>
+        <v>-821</v>
       </c>
       <c r="BC70" t="n">
-        <v>12533</v>
+        <v>8281</v>
       </c>
       <c r="BD70" t="n">
-        <v>-12288</v>
+        <v>957</v>
       </c>
       <c r="BE70" t="n">
-        <v>-13974</v>
+        <v>0</v>
       </c>
       <c r="BF70" t="n">
-        <v>-6652</v>
+        <v>-8536</v>
       </c>
       <c r="BG70" t="n">
-        <v>-19305</v>
+        <v>4191</v>
       </c>
       <c r="BH70" t="n">
-        <v>-26261</v>
+        <v>-697</v>
       </c>
       <c r="BI70" t="n">
         <v>-4740</v>
@@ -13641,7 +13667,9 @@
       <c r="G71" t="n">
         <v>56372</v>
       </c>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
@@ -13769,34 +13797,34 @@
         <v>5994</v>
       </c>
       <c r="AY71" t="n">
-        <v>0</v>
+        <v>-25804</v>
       </c>
       <c r="AZ71" t="n">
-        <v>856092.992</v>
+        <v>0</v>
       </c>
       <c r="BA71" t="n">
-        <v>0</v>
+        <v>14564</v>
       </c>
       <c r="BB71" t="n">
-        <v>0</v>
+        <v>8133</v>
       </c>
       <c r="BC71" t="n">
-        <v>12533</v>
+        <v>-22697</v>
       </c>
       <c r="BD71" t="n">
-        <v>15174</v>
+        <v>10350</v>
       </c>
       <c r="BE71" t="n">
         <v>0</v>
       </c>
       <c r="BF71" t="n">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="BG71" t="n">
-        <v>0</v>
+        <v>-14666</v>
       </c>
       <c r="BH71" t="n">
-        <v>0</v>
+        <v>10751</v>
       </c>
       <c r="BI71" t="n">
         <v>12848</v>
@@ -13826,7 +13854,9 @@
       <c r="G72" t="n">
         <v>105420</v>
       </c>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
@@ -13954,34 +13984,34 @@
         <v>-771</v>
       </c>
       <c r="AY72" t="n">
-        <v>0</v>
+        <v>3140</v>
       </c>
       <c r="AZ72" t="n">
         <v>0</v>
       </c>
       <c r="BA72" t="n">
-        <v>0</v>
+        <v>-6857</v>
       </c>
       <c r="BB72" t="n">
-        <v>0</v>
+        <v>-8954</v>
       </c>
       <c r="BC72" t="n">
-        <v>0</v>
+        <v>15811</v>
       </c>
       <c r="BD72" t="n">
-        <v>0</v>
+        <v>-9393</v>
       </c>
       <c r="BE72" t="n">
-        <v>-13974</v>
+        <v>0</v>
       </c>
       <c r="BF72" t="n">
-        <v>0</v>
+        <v>-12852</v>
       </c>
       <c r="BG72" t="n">
-        <v>-19305</v>
+        <v>22245</v>
       </c>
       <c r="BH72" t="n">
-        <v>-32913</v>
+        <v>-11448</v>
       </c>
       <c r="BI72" t="n">
         <v>-17588</v>
@@ -14011,7 +14041,9 @@
       <c r="G73" t="n">
         <v>-197178</v>
       </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>137464</v>
+      </c>
       <c r="I73" t="n">
         <v>137464</v>
       </c>
@@ -14139,34 +14171,34 @@
         <v>271484</v>
       </c>
       <c r="AY73" t="n">
-        <v>1909644.032</v>
+        <v>315413.984</v>
       </c>
       <c r="AZ73" t="n">
-        <v>1952610.048</v>
+        <v>244218</v>
       </c>
       <c r="BA73" t="n">
-        <v>3018231.04</v>
+        <v>196243.008</v>
       </c>
       <c r="BB73" t="n">
-        <v>2404178.944</v>
+        <v>195534</v>
       </c>
       <c r="BC73" t="n">
-        <v>2836764.928</v>
+        <v>191598.016</v>
       </c>
       <c r="BD73" t="n">
-        <v>1456733.696</v>
+        <v>195952.992</v>
       </c>
       <c r="BE73" t="n">
-        <v>2664044.032</v>
+        <v>194020</v>
       </c>
       <c r="BF73" t="n">
-        <v>3020014.08</v>
+        <v>201044.992</v>
       </c>
       <c r="BG73" t="n">
-        <v>3078903.04</v>
+        <v>217396.032</v>
       </c>
       <c r="BH73" t="n">
-        <v>3078915.84</v>
+        <v>224658</v>
       </c>
       <c r="BI73" t="n">
         <v>203023.008</v>
@@ -14196,7 +14228,9 @@
       <c r="G74" t="n">
         <v>35300</v>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>-36253</v>
+      </c>
       <c r="I74" t="n">
         <v>-36253</v>
       </c>
@@ -14324,34 +14358,34 @@
         <v>-202066</v>
       </c>
       <c r="AY74" t="n">
-        <v>0</v>
+        <v>-47420.008</v>
       </c>
       <c r="AZ74" t="n">
-        <v>-167808</v>
+        <v>-48722</v>
       </c>
       <c r="BA74" t="n">
-        <v>-794153.9840000001</v>
+        <v>22389</v>
       </c>
       <c r="BB74" t="n">
-        <v>-15503</v>
+        <v>612</v>
       </c>
       <c r="BC74" t="n">
-        <v>0</v>
+        <v>-95764</v>
       </c>
       <c r="BD74" t="n">
-        <v>559452.992</v>
+        <v>-23695</v>
       </c>
       <c r="BE74" t="n">
-        <v>-318094.016</v>
+        <v>-24451</v>
       </c>
       <c r="BF74" t="n">
-        <v>323543.008</v>
+        <v>30750</v>
       </c>
       <c r="BG74" t="n">
-        <v>-5194</v>
+        <v>-96059</v>
       </c>
       <c r="BH74" t="n">
-        <v>-146339.984</v>
+        <v>-28033</v>
       </c>
       <c r="BI74" t="n">
         <v>-12959</v>
@@ -14381,7 +14415,9 @@
       <c r="G75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>-21272</v>
+      </c>
       <c r="I75" t="n">
         <v>-21272</v>
       </c>
@@ -14509,34 +14545,34 @@
         <v>133067</v>
       </c>
       <c r="AY75" t="n">
-        <v>-66998</v>
+        <v>-77546</v>
       </c>
       <c r="AZ75" t="n">
-        <v>13924.976</v>
+        <v>0</v>
       </c>
       <c r="BA75" t="n">
-        <v>0</v>
+        <v>-49615</v>
       </c>
       <c r="BB75" t="n">
-        <v>41393</v>
+        <v>-24776</v>
       </c>
       <c r="BC75" t="n">
-        <v>-301604</v>
+        <v>74391</v>
       </c>
       <c r="BD75" t="n">
-        <v>-302510.976</v>
+        <v>0</v>
       </c>
       <c r="BE75" t="n">
         <v>0</v>
       </c>
       <c r="BF75" t="n">
-        <v>-474312</v>
+        <v>-54073</v>
       </c>
       <c r="BG75" t="n">
-        <v>9759</v>
+        <v>54073</v>
       </c>
       <c r="BH75" t="n">
-        <v>57970.984</v>
+        <v>0</v>
       </c>
       <c r="BI75" t="n">
         <v>0</v>
@@ -14566,7 +14602,9 @@
       <c r="G76" t="n">
         <v>215</v>
       </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
@@ -14694,34 +14732,34 @@
         <v>0</v>
       </c>
       <c r="AY76" t="n">
-        <v>-411190.016</v>
+        <v>0</v>
       </c>
       <c r="AZ76" t="n">
-        <v>-841335.936</v>
+        <v>0</v>
       </c>
       <c r="BA76" t="n">
-        <v>-281492</v>
+        <v>0</v>
       </c>
       <c r="BB76" t="n">
-        <v>-362769.984</v>
+        <v>0</v>
       </c>
       <c r="BC76" t="n">
-        <v>-347500</v>
+        <v>0</v>
       </c>
       <c r="BD76" t="n">
-        <v>-69384</v>
+        <v>0</v>
       </c>
       <c r="BE76" t="n">
-        <v>-212727.008</v>
+        <v>0</v>
       </c>
       <c r="BF76" t="n">
-        <v>-428000</v>
+        <v>0</v>
       </c>
       <c r="BG76" t="n">
-        <v>-460916.992</v>
+        <v>0</v>
       </c>
       <c r="BH76" t="n">
-        <v>-262999.968</v>
+        <v>0</v>
       </c>
       <c r="BI76" t="n">
         <v>0</v>
@@ -14751,7 +14789,9 @@
       <c r="G77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
@@ -15013,7 +15053,9 @@
       <c r="G79" t="n">
         <v>-161496</v>
       </c>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>79939</v>
+      </c>
       <c r="I79" t="n">
         <v>79939</v>
       </c>
@@ -15141,34 +15183,34 @@
         <v>202484.992</v>
       </c>
       <c r="AY79" t="n">
-        <v>1431456</v>
+        <v>190448.016</v>
       </c>
       <c r="AZ79" t="n">
-        <v>957390.784</v>
+        <v>195496</v>
       </c>
       <c r="BA79" t="n">
-        <v>1942584.96</v>
+        <v>169016.992</v>
       </c>
       <c r="BB79" t="n">
-        <v>2067298.944</v>
+        <v>171370</v>
       </c>
       <c r="BC79" t="n">
-        <v>2187661.056</v>
+        <v>170225.04</v>
       </c>
       <c r="BD79" t="n">
-        <v>1644292.096</v>
+        <v>172258</v>
       </c>
       <c r="BE79" t="n">
-        <v>2133223.04</v>
+        <v>169568.992</v>
       </c>
       <c r="BF79" t="n">
-        <v>2441244.928</v>
+        <v>177722</v>
       </c>
       <c r="BG79" t="n">
-        <v>2622551.04</v>
+        <v>175409.984</v>
       </c>
       <c r="BH79" t="n">
-        <v>2727546.88</v>
+        <v>196624.992</v>
       </c>
       <c r="BI79" t="n">
         <v>190064</v>
